--- a/biology/Médecine/Johanna_Decker/Johanna_Decker.xlsx
+++ b/biology/Médecine/Johanna_Decker/Johanna_Decker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johanna Maria Katharina Decker (née le 19 juin 1918 à Nuremberg, morte le 9 août 1977 à Lupane, Rhodésie) est une médecin missionnaire catholique allemande. Elle est assassinée lors de la guerre du Bush de Rhodésie du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johanna Decker est la fille d'Ignaz Decker, conseiller financier, et de Maria-Anna Decker. En 1922, son père est muté à Amberg, où elle fréquenta l'école primaire et, de 1928 à 1934, le Lyceum des pauvres sœurs des écoles de Notre-Dame, qui porte son nom (de) aujourd'hui (ancien couvent des Visitandines). C'est une excellente élève, douée de talents artistiques, elle sait bien dessiner et jouer du piano. En 1937, elle obtient son abitur.
 Johanna Decker est active dans les œuvres pour la jeunesse de l'Église. Elle mûrit l’idée de rejoindre un service missionnaire, et rejoint le Missionsärztliches Institut Würzburg en 1939. Le jour de l'Épiphanie, le 6 janvier, 1946, elle promet de « se consacrer à des missions sur des terres païennes pendant au moins dix ans après la fin de ses études de médecine ».
@@ -547,7 +561,9 @@
           <t>Circonstance et suite de sa mort</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré la guerre en Rhodésie, elle veut être fidèle à la mission, mais a une sombre prémonition des terribles événements. Comme beaucoup de personnes l'ont dit, lors de son dernier adieu à l'Europe à l'automne 1976, elle pleure beaucoup à l'aéroport de Rome.
 En décembre 1976, l'évêque de Bulawayo, Mgr Schmitt (de), est assassiné. Les installations des missionnaires (blancs) sont la cible privilégiée des attaques terroristes. Les Missionnaires de Mariannhill ont neuf religieux tués entre 1976 et 1987.
@@ -581,7 +597,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la presse, Johanna Decker est qualifiée de martyre des missions médicales. Son dévouement et son sacrifice font d'elle un modèle pour les futurs médecins missionnaires au-delà des frontières du Zimbabwe et de l'Allemagne.
 Le Dr Decker jouit aussi d'une réputation de scientifique grâce à une série d'articles publiés dans de prestigieuses revues médicales en Afrique du Sud, en Grande-Bretagne et en Allemagne. Le 29 novembre 1979, elle reçoit à titre posthume le Prix Noristan du Pretoria Science Council.
